--- a/src/main/resources/REPGROUP.XLSX
+++ b/src/main/resources/REPGROUP.XLSX
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\idea\itdesign\slices\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -454,15 +454,16 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="79.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -526,7 +527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -558,7 +559,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -590,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -622,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -654,7 +655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -686,7 +687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -718,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -750,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
